--- a/objective.xlsx
+++ b/objective.xlsx
@@ -496,7 +496,7 @@
         <v>0.9948381985086751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9958076332453322</v>
+        <v>0.9782525941604256</v>
       </c>
       <c r="E3" t="n">
         <v>31.98281710745648</v>
@@ -517,7 +517,7 @@
         <v>0.9895089289796954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9911384338284763</v>
+        <v>0.9547186095026599</v>
       </c>
       <c r="E4" t="n">
         <v>31.32994159839446</v>
@@ -538,7 +538,7 @@
         <v>0.9672716861442123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9716335849988108</v>
+        <v>0.8614954177399567</v>
       </c>
       <c r="E5" t="n">
         <v>22.85661161961858</v>
@@ -559,7 +559,7 @@
         <v>0.9626295319873277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9672791769942103</v>
+        <v>0.8430604271637385</v>
       </c>
       <c r="E6" t="n">
         <v>23.61964010491937</v>
@@ -580,7 +580,7 @@
         <v>0.9624830358896135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9669793012501999</v>
+        <v>0.8408423978952163</v>
       </c>
       <c r="E7" t="n">
         <v>22.27973957285322</v>
@@ -601,7 +601,7 @@
         <v>0.9863127881455299</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9880299697418857</v>
+        <v>0.9401233253810735</v>
       </c>
       <c r="E8" t="n">
         <v>27.88570064946823</v>
@@ -622,7 +622,7 @@
         <v>0.9736823471448508</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9771733360321222</v>
+        <v>0.8874157507884007</v>
       </c>
       <c r="E9" t="n">
         <v>26.54060356942948</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
@@ -664,7 +664,7 @@
         <v>0.9658707044613767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9695507637632554</v>
+        <v>0.8522567642963749</v>
       </c>
       <c r="E11" t="n">
         <v>28.12525620113401</v>
@@ -706,7 +706,7 @@
         <v>0.9925108446917478</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9932086090687384</v>
+        <v>0.9656105396103998</v>
       </c>
       <c r="E13" t="n">
         <v>34.47686959203029</v>
@@ -727,7 +727,7 @@
         <v>0.9760596632328474</v>
       </c>
       <c r="D14" t="n">
-        <v>0.978258679319447</v>
+        <v>0.893278030261534</v>
       </c>
       <c r="E14" t="n">
         <v>25.38814563275958</v>
@@ -748,7 +748,7 @@
         <v>0.9837624111696234</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9862477237679778</v>
+        <v>0.9305953573762442</v>
       </c>
       <c r="E15" t="n">
         <v>28.48717822277982</v>
@@ -769,7 +769,7 @@
         <v>0.9958395922755963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9964081507312718</v>
+        <v>0.9815539119236659</v>
       </c>
       <c r="E16" t="n">
         <v>35.2023794252696</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>100</v>
@@ -811,7 +811,7 @@
         <v>0.9544162789600339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9604005898751079</v>
+        <v>0.8116212681284678</v>
       </c>
       <c r="E18" t="n">
         <v>24.2129207819637</v>
@@ -832,7 +832,7 @@
         <v>0.9963380140601975</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9970341478602192</v>
+        <v>0.9846355667227807</v>
       </c>
       <c r="E19" t="n">
         <v>32.65606638372199</v>
@@ -853,7 +853,7 @@
         <v>0.999618020121475</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996648078788971</v>
+        <v>0.9982722405259969</v>
       </c>
       <c r="E20" t="n">
         <v>43.72234974460362</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
@@ -895,7 +895,7 @@
         <v>0.9947877908368412</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9955395665907227</v>
+        <v>0.9771734242709971</v>
       </c>
       <c r="E22" t="n">
         <v>31.07436432439908</v>
@@ -937,7 +937,7 @@
         <v>0.9770479446820156</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9796489194263081</v>
+        <v>0.8990500640988058</v>
       </c>
       <c r="E24" t="n">
         <v>29.79644281207442</v>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
@@ -1000,7 +1000,7 @@
         <v>0.9996193459094809</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9996755422573587</v>
+        <v>0.9983249755573067</v>
       </c>
       <c r="E27" t="n">
         <v>41.7880144833572</v>
@@ -1021,7 +1021,7 @@
         <v>0.9775497420252465</v>
       </c>
       <c r="D28" t="n">
-        <v>0.979614081079257</v>
+        <v>0.8999626081641929</v>
       </c>
       <c r="E28" t="n">
         <v>29.43315674441925</v>
@@ -1042,7 +1042,7 @@
         <v>0.9746119521921076</v>
       </c>
       <c r="D29" t="n">
-        <v>0.97539906529288</v>
+        <v>0.8821088123115227</v>
       </c>
       <c r="E29" t="n">
         <v>24.2790054486481</v>
@@ -1063,7 +1063,7 @@
         <v>0.9535153802378543</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9581007144139672</v>
+        <v>0.8025939974802168</v>
       </c>
       <c r="E30" t="n">
         <v>22.59770613545545</v>
@@ -1084,7 +1084,7 @@
         <v>0.9094979454347718</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9154527159662177</v>
+        <v>0.6387177165472363</v>
       </c>
       <c r="E31" t="n">
         <v>19.19719960840655</v>
@@ -1105,7 +1105,7 @@
         <v>0.99504109981815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9954941856898899</v>
+        <v>0.9772247964649428</v>
       </c>
       <c r="E32" t="n">
         <v>35.4780642808975</v>
@@ -1126,7 +1126,7 @@
         <v>0.9538073260007286</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9567673330255577</v>
+        <v>0.7988051091527073</v>
       </c>
       <c r="E33" t="n">
         <v>25.03501158967222</v>
@@ -1147,7 +1147,7 @@
         <v>0.973962384131519</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9759970951649934</v>
+        <v>0.8830980328761275</v>
       </c>
       <c r="E34" t="n">
         <v>25.03310473649536</v>
@@ -1168,7 +1168,7 @@
         <v>0.9982149004599449</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9984860256910433</v>
+        <v>0.9921891765891788</v>
       </c>
       <c r="E35" t="n">
         <v>36.57920684752794</v>
@@ -1189,7 +1189,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E36" t="n">
         <v>100</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E37" t="n">
         <v>100</v>
@@ -1231,7 +1231,7 @@
         <v>0.9923898647748337</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9929946822346633</v>
+        <v>0.9649237100169088</v>
       </c>
       <c r="E38" t="n">
         <v>33.62226300295906</v>
@@ -1252,7 +1252,7 @@
         <v>0.9742363765093788</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9757509493989822</v>
+        <v>0.8825135237022006</v>
       </c>
       <c r="E39" t="n">
         <v>29.17931355861502</v>
@@ -1273,7 +1273,7 @@
         <v>0.9902451762302272</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9914535664783981</v>
+        <v>0.956605651875675</v>
       </c>
       <c r="E40" t="n">
         <v>32.83041814564749</v>
@@ -1294,7 +1294,7 @@
         <v>0.9672823682779854</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9704049938310086</v>
+        <v>0.8574943113869335</v>
       </c>
       <c r="E41" t="n">
         <v>25.50715343674003</v>
@@ -1315,7 +1315,7 @@
         <v>0.977448759189675</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9811996695093405</v>
+        <v>0.905911026167041</v>
       </c>
       <c r="E42" t="n">
         <v>24.96288217689568</v>
@@ -1336,7 +1336,7 @@
         <v>0.9838223822324997</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9848610432829118</v>
+        <v>0.9252489414386192</v>
       </c>
       <c r="E43" t="n">
         <v>31.47457547222468</v>
@@ -1357,7 +1357,7 @@
         <v>0.9739782489847678</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9758441428499682</v>
+        <v>0.8826351943439343</v>
       </c>
       <c r="E44" t="n">
         <v>25.49028140401925</v>
@@ -1378,7 +1378,7 @@
         <v>0.9356056995836038</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9449577441537999</v>
+        <v>0.746409559902301</v>
       </c>
       <c r="E45" t="n">
         <v>20.77989373979891</v>
@@ -1399,7 +1399,7 @@
         <v>0.9558637101184415</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9599416569395742</v>
+        <v>0.8122750510528239</v>
       </c>
       <c r="E46" t="n">
         <v>22.91935846332762</v>
@@ -1420,7 +1420,7 @@
         <v>0.9233802839924853</v>
       </c>
       <c r="D47" t="n">
-        <v>0.931735920431023</v>
+        <v>0.6978952596072742</v>
       </c>
       <c r="E47" t="n">
         <v>22.73977511473299</v>
@@ -1441,7 +1441,7 @@
         <v>0.9769131338192159</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9790419982320028</v>
+        <v>0.897333433586697</v>
       </c>
       <c r="E48" t="n">
         <v>29.31233055164121</v>
@@ -1462,7 +1462,7 @@
         <v>0.9205211809249202</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9288087721115904</v>
+        <v>0.6872312868838196</v>
       </c>
       <c r="E49" t="n">
         <v>22.59469036360864</v>
@@ -1483,7 +1483,7 @@
         <v>0.9975137028019269</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9977633383596298</v>
+        <v>0.9886111307319323</v>
       </c>
       <c r="E50" t="n">
         <v>39.22757336631497</v>
@@ -1525,7 +1525,7 @@
         <v>0.9940446049176538</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9946804354609377</v>
+        <v>0.9728925886650179</v>
       </c>
       <c r="E52" t="n">
         <v>33.91513944391844</v>
@@ -1546,7 +1546,7 @@
         <v>0.9774740918667542</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9798937636735199</v>
+        <v>0.9006337521457211</v>
       </c>
       <c r="E53" t="n">
         <v>29.24455033683328</v>
@@ -1567,7 +1567,7 @@
         <v>0.9954982243508053</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9956427119310173</v>
+        <v>0.9781516976106306</v>
       </c>
       <c r="E54" t="n">
         <v>29.80977432392503</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>100</v>
@@ -1609,7 +1609,7 @@
         <v>0.9860221093872891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9872002528128944</v>
+        <v>0.9360955093662123</v>
       </c>
       <c r="E56" t="n">
         <v>32.09060107749255</v>
@@ -1630,7 +1630,7 @@
         <v>0.9821864538390124</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9844817372477859</v>
+        <v>0.9223998989982508</v>
       </c>
       <c r="E57" t="n">
         <v>30.25407671352048</v>
@@ -1651,7 +1651,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>100</v>
@@ -1672,7 +1672,7 @@
         <v>0.9999334491276276</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9999398491039969</v>
+        <v>0.999691532768303</v>
       </c>
       <c r="E59" t="n">
         <v>48.0870230205191</v>
@@ -1693,7 +1693,7 @@
         <v>0.9995177028501634</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9995626905519828</v>
+        <v>0.9977601947505018</v>
       </c>
       <c r="E60" t="n">
         <v>46.66564735264881</v>
@@ -1714,7 +1714,7 @@
         <v>0.9469333522258835</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9527140246618688</v>
+        <v>0.7796382909635169</v>
       </c>
       <c r="E61" t="n">
         <v>22.04199315364767</v>
@@ -1735,7 +1735,7 @@
         <v>0.9938859207503581</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9945190340823268</v>
+        <v>0.9721488002528341</v>
       </c>
       <c r="E62" t="n">
         <v>34.85806205922052</v>
@@ -1756,7 +1756,7 @@
         <v>0.9991226720364872</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9992140455212258</v>
+        <v>0.9959700525253554</v>
       </c>
       <c r="E63" t="n">
         <v>44.0697603396687</v>
@@ -1777,7 +1777,7 @@
         <v>0.9965575909501289</v>
       </c>
       <c r="D64" t="n">
-        <v>0.996917735412327</v>
+        <v>0.984361739606469</v>
       </c>
       <c r="E64" t="n">
         <v>32.23250174368309</v>
@@ -1819,7 +1819,7 @@
         <v>0.944681859961387</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9484856596950566</v>
+        <v>0.7638145967837373</v>
       </c>
       <c r="E66" t="n">
         <v>20.66563023286388</v>
@@ -1840,7 +1840,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E67" t="n">
         <v>100</v>
@@ -1861,7 +1861,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E68" t="n">
         <v>100</v>
@@ -1882,7 +1882,7 @@
         <v>0.9955008331295125</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9959475859489985</v>
+        <v>0.9794084868514377</v>
       </c>
       <c r="E69" t="n">
         <v>36.66060122132351</v>
@@ -1903,7 +1903,7 @@
         <v>0.999626897802893</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9996586848254093</v>
+        <v>0.9982586094970606</v>
       </c>
       <c r="E70" t="n">
         <v>46.69933870788516</v>
@@ -1945,7 +1945,7 @@
         <v>0.9242436553815692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9328420579072804</v>
+        <v>0.6994277976811432</v>
       </c>
       <c r="E72" t="n">
         <v>22.14427906721772</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E73" t="n">
         <v>100</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E74" t="n">
         <v>100</v>
@@ -2008,7 +2008,7 @@
         <v>0.9723271662266477</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9761814052081491</v>
+        <v>0.8821646298408951</v>
       </c>
       <c r="E75" t="n">
         <v>28.19865697184128</v>
@@ -2029,7 +2029,7 @@
         <v>0.9985718977806232</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9987086117037854</v>
+        <v>0.9933925442738435</v>
       </c>
       <c r="E76" t="n">
         <v>41.95962263736779</v>
@@ -2071,7 +2071,7 @@
         <v>0.9996439342085838</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9996775586257538</v>
+        <v>0.9983561366019166</v>
       </c>
       <c r="E78" t="n">
         <v>42.70993130346442</v>
@@ -2092,7 +2092,7 @@
         <v>0.9810139386884679</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9834808443617629</v>
+        <v>0.9174740715759978</v>
       </c>
       <c r="E79" t="n">
         <v>28.66356766369568</v>
@@ -2113,7 +2113,7 @@
         <v>0.9783687141438979</v>
       </c>
       <c r="D80" t="n">
-        <v>0.980277859275838</v>
+        <v>0.9036300461708319</v>
       </c>
       <c r="E80" t="n">
         <v>25.01559023079337</v>
@@ -2134,7 +2134,7 @@
         <v>0.9917759408835908</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9927994832081689</v>
+        <v>0.9633980800470224</v>
       </c>
       <c r="E81" t="n">
         <v>33.73880183248253</v>
@@ -2155,7 +2155,7 @@
         <v>0.9816730827203332</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9836338028303694</v>
+        <v>0.918732698822625</v>
       </c>
       <c r="E82" t="n">
         <v>28.93812767167755</v>
@@ -2176,7 +2176,7 @@
         <v>0.9992057295221719</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9993109696971179</v>
+        <v>0.9964477194983495</v>
       </c>
       <c r="E83" t="n">
         <v>41.50904349103339</v>
@@ -2197,7 +2197,7 @@
         <v>0.9900704039804756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9908597149318633</v>
+        <v>0.9541398854249273</v>
       </c>
       <c r="E84" t="n">
         <v>33.24380523762883</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E85" t="n">
         <v>100</v>
@@ -2239,7 +2239,7 @@
         <v>0.9979883751377906</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9981202653064065</v>
+        <v>0.9904842052408112</v>
       </c>
       <c r="E86" t="n">
         <v>38.70108262950309</v>
@@ -2260,7 +2260,7 @@
         <v>0.9151323318928539</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9228762982956273</v>
+        <v>0.6640755504650149</v>
       </c>
       <c r="E87" t="n">
         <v>19.66014424662498</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E88" t="n">
         <v>100</v>
@@ -2302,7 +2302,7 @@
         <v>0.9749325220577545</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9766496554251758</v>
+        <v>0.8864128388530897</v>
       </c>
       <c r="E89" t="n">
         <v>25.64791368894643</v>
@@ -2344,7 +2344,7 @@
         <v>0.9986063973891476</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9988037744814048</v>
+        <v>0.9938105675712245</v>
       </c>
       <c r="E91" t="n">
         <v>41.25172127264696</v>
@@ -2365,7 +2365,7 @@
         <v>0.9838979878127879</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9851652801396582</v>
+        <v>0.9262859681077106</v>
       </c>
       <c r="E92" t="n">
         <v>29.63309834409815</v>
@@ -2386,7 +2386,7 @@
         <v>0.9938900136450474</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9944202608531987</v>
+        <v>0.9716977486428102</v>
       </c>
       <c r="E93" t="n">
         <v>33.47965488606061</v>
@@ -2428,7 +2428,7 @@
         <v>0.9964534641300651</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9968346955776346</v>
+        <v>0.9839327890356029</v>
       </c>
       <c r="E95" t="n">
         <v>32.10304010068082</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E96" t="n">
         <v>100</v>
@@ -2470,7 +2470,7 @@
         <v>0.996420767668812</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9967695137519738</v>
+        <v>0.9835790142105738</v>
       </c>
       <c r="E97" t="n">
         <v>36.20072356174269</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E98" t="n">
         <v>100</v>
@@ -2512,7 +2512,7 @@
         <v>0.9828764437178499</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9851988269901282</v>
+        <v>0.926527850533473</v>
       </c>
       <c r="E99" t="n">
         <v>29.01086722294433</v>
@@ -2533,7 +2533,7 @@
         <v>0.9850166372155493</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9860573172264901</v>
+        <v>0.9308875515245687</v>
       </c>
       <c r="E100" t="n">
         <v>31.80219052393312</v>
@@ -2575,7 +2575,7 @@
         <v>0.9989456596183681</v>
       </c>
       <c r="D102" t="n">
-        <v>0.999026662123415</v>
+        <v>0.9950621155362551</v>
       </c>
       <c r="E102" t="n">
         <v>41.50289780544423</v>
@@ -2596,7 +2596,7 @@
         <v>0.999619399615825</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9996613415472276</v>
+        <v>0.998258552725997</v>
       </c>
       <c r="E103" t="n">
         <v>45.51868449199198</v>
@@ -2617,7 +2617,7 @@
         <v>0.9994639553893361</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9995241840619423</v>
+        <v>0.9975498093914753</v>
       </c>
       <c r="E104" t="n">
         <v>45.24046132803381</v>
@@ -2638,7 +2638,7 @@
         <v>0.963379448298423</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9675825342775939</v>
+        <v>0.8432598041610416</v>
       </c>
       <c r="E105" t="n">
         <v>27.82918434585076</v>
@@ -2659,7 +2659,7 @@
         <v>0.9996952076197575</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9997266183066901</v>
+        <v>0.9985962150537122</v>
       </c>
       <c r="E106" t="n">
         <v>47.86083537930151</v>
@@ -2680,7 +2680,7 @@
         <v>0.9836802846226925</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9849255747006578</v>
+        <v>0.9251959383334738</v>
       </c>
       <c r="E107" t="n">
         <v>29.57523227265357</v>
@@ -2701,7 +2701,7 @@
         <v>0.8928438810700531</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8982021757384504</v>
+        <v>0.5810900134683081</v>
       </c>
       <c r="E108" t="n">
         <v>18.52073252075735</v>
@@ -2722,7 +2722,7 @@
         <v>0.9930423040431252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9940594520075944</v>
+        <v>0.9697156850957309</v>
       </c>
       <c r="E109" t="n">
         <v>29.88513025730788</v>
@@ -2743,7 +2743,7 @@
         <v>0.9924424240207759</v>
       </c>
       <c r="D110" t="n">
-        <v>0.993140865186501</v>
+        <v>0.9652817705368784</v>
       </c>
       <c r="E110" t="n">
         <v>34.43743474828098</v>
@@ -2785,7 +2785,7 @@
         <v>0.9964648408200298</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9970885201340385</v>
+        <v>0.9849185383090253</v>
       </c>
       <c r="E112" t="n">
         <v>33.16114203572475</v>
@@ -2827,7 +2827,7 @@
         <v>0.9992878873415278</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9993833218115478</v>
+        <v>0.9968093821912216</v>
       </c>
       <c r="E114" t="n">
         <v>37.79802849290129</v>
@@ -2848,7 +2848,7 @@
         <v>0.9991959593661218</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9992795591623361</v>
+        <v>0.9963050213329482</v>
       </c>
       <c r="E115" t="n">
         <v>43.48176522536409</v>
@@ -2869,7 +2869,7 @@
         <v>0.9101146081577235</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9170282606302548</v>
+        <v>0.6437814541442396</v>
       </c>
       <c r="E116" t="n">
         <v>22.16947009028168</v>
@@ -2890,7 +2890,7 @@
         <v>0.9892382027064133</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9901788191323125</v>
+        <v>0.9505688184413846</v>
       </c>
       <c r="E117" t="n">
         <v>31.03658697033775</v>
@@ -2911,7 +2911,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E118" t="n">
         <v>100</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>100</v>
@@ -2974,7 +2974,7 @@
         <v>0.9847361411977943</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9860882440663271</v>
+        <v>0.93090143228253</v>
       </c>
       <c r="E121" t="n">
         <v>30.6297259984525</v>
@@ -2995,7 +2995,7 @@
         <v>0.94811735453266</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9483501363257465</v>
+        <v>0.7655920673329857</v>
       </c>
       <c r="E122" t="n">
         <v>20.64061624997463</v>
@@ -3016,7 +3016,7 @@
         <v>0.9823953060204493</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9834859146240049</v>
+        <v>0.9186811184446807</v>
       </c>
       <c r="E123" t="n">
         <v>30.78478562986214</v>
@@ -3058,7 +3058,7 @@
         <v>0.987807130053689</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9894253905655308</v>
+        <v>0.9467362630729879</v>
       </c>
       <c r="E125" t="n">
         <v>27.46714438853606</v>
@@ -3079,7 +3079,7 @@
         <v>0.9903296357596583</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9919955398408236</v>
+        <v>0.9592580843421801</v>
       </c>
       <c r="E126" t="n">
         <v>31.46413826636854</v>
@@ -3100,7 +3100,7 @@
         <v>0.9968115915874227</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9972898662429253</v>
+        <v>0.985979591050212</v>
       </c>
       <c r="E127" t="n">
         <v>36.47988186569191</v>
@@ -3121,7 +3121,7 @@
         <v>0.9810722880394231</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9821221474998071</v>
+        <v>0.9128522213025123</v>
       </c>
       <c r="E128" t="n">
         <v>29.02817669222699</v>
@@ -3163,7 +3163,7 @@
         <v>0.9915703071138414</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9927795386021452</v>
+        <v>0.9631157010707028</v>
       </c>
       <c r="E130" t="n">
         <v>32.14954774067868</v>
@@ -3184,7 +3184,7 @@
         <v>0.986858838469075</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9879419683498417</v>
+        <v>0.9398981998949862</v>
       </c>
       <c r="E131" t="n">
         <v>32.05871957156644</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>100</v>
@@ -3226,7 +3226,7 @@
         <v>0.9862234096645937</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9883470243575359</v>
+        <v>0.9411668226464216</v>
       </c>
       <c r="E133" t="n">
         <v>27.07601175072667</v>
@@ -3247,7 +3247,7 @@
         <v>0.9556782540086585</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9605166751082291</v>
+        <v>0.8132161986496265</v>
       </c>
       <c r="E134" t="n">
         <v>25.07551099161346</v>
@@ -3289,7 +3289,7 @@
         <v>0.9268715401016903</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9281469139736832</v>
+        <v>0.6876765997397316</v>
       </c>
       <c r="E136" t="n">
         <v>23.118733550264</v>
@@ -3310,7 +3310,7 @@
         <v>0.9918842058063438</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9925114656151101</v>
+        <v>0.9625213149260157</v>
       </c>
       <c r="E137" t="n">
         <v>30.47567649303065</v>
@@ -3331,7 +3331,7 @@
         <v>0.9491477924677089</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9538395832449295</v>
+        <v>0.7855751702561858</v>
       </c>
       <c r="E138" t="n">
         <v>25.6557003211861</v>
@@ -3352,7 +3352,7 @@
         <v>0.9648543529435167</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9674118612847185</v>
+        <v>0.8444272121893547</v>
       </c>
       <c r="E139" t="n">
         <v>28.16515373497711</v>
@@ -3373,7 +3373,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E140" t="n">
         <v>100</v>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>100</v>
@@ -3415,7 +3415,7 @@
         <v>0.9984295126252655</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9985235225629878</v>
+        <v>0.9925113449480686</v>
       </c>
       <c r="E142" t="n">
         <v>41.54324457152452</v>
@@ -3436,7 +3436,7 @@
         <v>0.9718574664290192</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9770391424308247</v>
+        <v>0.8852295598461339</v>
       </c>
       <c r="E143" t="n">
         <v>24.69164010381301</v>
@@ -3457,7 +3457,7 @@
         <v>0.993082984466968</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9936472560106203</v>
+        <v>0.9681447152509848</v>
       </c>
       <c r="E144" t="n">
         <v>29.21917885374377</v>
@@ -3478,7 +3478,7 @@
         <v>0.9601119041197733</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9617569067865179</v>
+        <v>0.8214114128721144</v>
       </c>
       <c r="E145" t="n">
         <v>27.00782943252057</v>
@@ -3520,7 +3520,7 @@
         <v>0.9678843777164511</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9705622250698674</v>
+        <v>0.858379794552546</v>
       </c>
       <c r="E147" t="n">
         <v>26.55078082347934</v>
@@ -3562,7 +3562,7 @@
         <v>0.999027206593435</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9992208842934931</v>
+        <v>0.9959246754201431</v>
       </c>
       <c r="E149" t="n">
         <v>38.40730472243904</v>
@@ -3583,7 +3583,7 @@
         <v>0.9886371096854984</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9894019605605473</v>
+        <v>0.9471447064567261</v>
       </c>
       <c r="E150" t="n">
         <v>31.12394617538892</v>
@@ -3604,7 +3604,7 @@
         <v>0.9945787531007028</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9952208775624347</v>
+        <v>0.9754838098990793</v>
       </c>
       <c r="E151" t="n">
         <v>36.00226939991772</v>
@@ -3646,7 +3646,7 @@
         <v>0.9240137929751416</v>
       </c>
       <c r="D153" t="n">
-        <v>0.928375755384832</v>
+        <v>0.6849377435944536</v>
       </c>
       <c r="E153" t="n">
         <v>24.8087690928335</v>
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E154" t="n">
         <v>100</v>
@@ -3688,7 +3688,7 @@
         <v>0.9574015657623599</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9599510951103292</v>
+        <v>0.8123814200617228</v>
       </c>
       <c r="E155" t="n">
         <v>27.05090405004223</v>
@@ -3709,7 +3709,7 @@
         <v>0.8597409101992416</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8604349759748897</v>
+        <v>0.4698888339015779</v>
       </c>
       <c r="E156" t="n">
         <v>22.39883092069206</v>
@@ -3730,7 +3730,7 @@
         <v>0.933127046056365</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9388990703132842</v>
+        <v>0.7242339688194733</v>
       </c>
       <c r="E157" t="n">
         <v>21.09312706529429</v>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E158" t="n">
         <v>100</v>
@@ -3772,7 +3772,7 @@
         <v>0.9848233034728011</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9859201347513017</v>
+        <v>0.9305472897141925</v>
       </c>
       <c r="E159" t="n">
         <v>29.97197191020038</v>
@@ -3793,7 +3793,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E160" t="n">
         <v>100</v>
@@ -3814,7 +3814,7 @@
         <v>0.9165149827603412</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9184510336399622</v>
+        <v>0.6522966502313665</v>
       </c>
       <c r="E161" t="n">
         <v>23.77388172532968</v>
@@ -3835,7 +3835,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E162" t="n">
         <v>100</v>
@@ -3856,7 +3856,7 @@
         <v>0.9974461671652461</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9976975338827697</v>
+        <v>0.9882396036370852</v>
       </c>
       <c r="E163" t="n">
         <v>37.25714839177579</v>
@@ -3877,7 +3877,7 @@
         <v>0.9503691320295602</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9580680825720892</v>
+        <v>0.8008787299967232</v>
       </c>
       <c r="E164" t="n">
         <v>21.65723003225504</v>
@@ -3898,7 +3898,7 @@
         <v>0.9885441887378217</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9903896356083095</v>
+        <v>0.9507904037548521</v>
       </c>
       <c r="E165" t="n">
         <v>31.96965092976927</v>
@@ -3919,7 +3919,7 @@
         <v>0.9928685917839306</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9937713247697798</v>
+        <v>0.9683632923417008</v>
       </c>
       <c r="E166" t="n">
         <v>29.37202905500232</v>
@@ -3961,7 +3961,7 @@
         <v>0.9678326724693285</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9735904711808783</v>
+        <v>0.869953462053317</v>
       </c>
       <c r="E168" t="n">
         <v>23.66257320759092</v>
@@ -3982,7 +3982,7 @@
         <v>0.9823029214356889</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9833707224434636</v>
+        <v>0.9184532622251439</v>
       </c>
       <c r="E169" t="n">
         <v>25.82156175492002</v>
@@ -4003,7 +4003,7 @@
         <v>0.9719365771668024</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9730648509498452</v>
+        <v>0.870790086610446</v>
       </c>
       <c r="E170" t="n">
         <v>26.93099101228724</v>
@@ -4024,7 +4024,7 @@
         <v>0.9857070040303465</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9876845613396648</v>
+        <v>0.9380018367944517</v>
       </c>
       <c r="E171" t="n">
         <v>26.37724961454907</v>
@@ -4045,7 +4045,7 @@
         <v>0.9882868760972282</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9905752588218678</v>
+        <v>0.9515199038162845</v>
       </c>
       <c r="E172" t="n">
         <v>28.43921196579994</v>
@@ -4066,7 +4066,7 @@
         <v>0.916991567229157</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9175910151082787</v>
+        <v>0.6496932178163171</v>
       </c>
       <c r="E173" t="n">
         <v>23.81802635105458</v>
@@ -4087,7 +4087,7 @@
         <v>0.9987362304027821</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9989238079808299</v>
+        <v>0.9944204128358644</v>
       </c>
       <c r="E174" t="n">
         <v>35.31063604724515</v>
@@ -4108,7 +4108,7 @@
         <v>0.9985197826948494</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9986731025548927</v>
+        <v>0.9931890955662129</v>
       </c>
       <c r="E175" t="n">
         <v>39.94671930087613</v>
@@ -4129,7 +4129,7 @@
         <v>0.8657283706233764</v>
       </c>
       <c r="D176" t="n">
-        <v>0.869895396134158</v>
+        <v>0.495087395027128</v>
       </c>
       <c r="E176" t="n">
         <v>19.88019548007036</v>
@@ -4150,7 +4150,7 @@
         <v>0.9940143049081114</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9947927854785061</v>
+        <v>0.9736448847821422</v>
       </c>
       <c r="E177" t="n">
         <v>31.44912840901051</v>
@@ -4171,7 +4171,7 @@
         <v>0.9541487230625557</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9539899738747576</v>
+        <v>0.7897126960298829</v>
       </c>
       <c r="E178" t="n">
         <v>21.78801614352306</v>
@@ -4192,7 +4192,7 @@
         <v>0.9621932930702446</v>
       </c>
       <c r="D179" t="n">
-        <v>0.966977121116162</v>
+        <v>0.8422064885750937</v>
       </c>
       <c r="E179" t="n">
         <v>25.65493888070354</v>
@@ -4213,7 +4213,7 @@
         <v>0.9402569313872329</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9415332562180062</v>
+        <v>0.7386818833528926</v>
       </c>
       <c r="E180" t="n">
         <v>25.32101353037903</v>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E181" t="n">
         <v>100</v>
@@ -4255,7 +4255,7 @@
         <v>0.9582217497009139</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9599767703045958</v>
+        <v>0.8148931627525307</v>
       </c>
       <c r="E182" t="n">
         <v>22.24917547201443</v>
@@ -4276,7 +4276,7 @@
         <v>0.9882141453075055</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9895674487903551</v>
+        <v>0.9476240819553963</v>
       </c>
       <c r="E183" t="n">
         <v>27.56266480716369</v>
@@ -4297,7 +4297,7 @@
         <v>0.9986294204682857</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9987556243833038</v>
+        <v>0.9936267709188905</v>
       </c>
       <c r="E184" t="n">
         <v>41.82725477105872</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E185" t="n">
         <v>100</v>
@@ -4339,7 +4339,7 @@
         <v>0.9958794247428234</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9962234917386539</v>
+        <v>0.9807980198286378</v>
       </c>
       <c r="E186" t="n">
         <v>37.36113398067867</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E187" t="n">
         <v>100</v>
@@ -4381,7 +4381,7 @@
         <v>0.9858363282858705</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9873673013815524</v>
+        <v>0.9367106880776798</v>
       </c>
       <c r="E188" t="n">
         <v>31.39099922833305</v>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E189" t="n">
         <v>100</v>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E191" t="n">
         <v>100</v>
@@ -4465,7 +4465,7 @@
         <v>0.9490827052359521</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9503134419332506</v>
+        <v>0.7746834753406578</v>
       </c>
       <c r="E192" t="n">
         <v>26.61610877750516</v>
@@ -4486,7 +4486,7 @@
         <v>0.9869989058729778</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9892386341033313</v>
+        <v>0.9453408448616574</v>
       </c>
       <c r="E193" t="n">
         <v>27.53611091974635</v>
@@ -4507,7 +4507,7 @@
         <v>0.9729277630793511</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9736324247306288</v>
+        <v>0.8735571412605971</v>
       </c>
       <c r="E194" t="n">
         <v>28.95332486230574</v>
@@ -4528,7 +4528,7 @@
         <v>0.94977692048818</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9534960776869409</v>
+        <v>0.7859915683624944</v>
       </c>
       <c r="E195" t="n">
         <v>22.38440054901659</v>
@@ -4549,7 +4549,7 @@
         <v>0.9965557108110156</v>
       </c>
       <c r="D196" t="n">
-        <v>0.996987348908163</v>
+        <v>0.9845113882054585</v>
       </c>
       <c r="E196" t="n">
         <v>38.14495629419937</v>
@@ -4570,7 +4570,7 @@
         <v>0.9725669142078988</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9755587944657368</v>
+        <v>0.8807563162275759</v>
       </c>
       <c r="E197" t="n">
         <v>26.24673284406214</v>
@@ -4591,7 +4591,7 @@
         <v>0.9937685106373293</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9942695709761709</v>
+        <v>0.9711996417814245</v>
       </c>
       <c r="E198" t="n">
         <v>33.80941175626433</v>
@@ -4612,7 +4612,7 @@
         <v>0.9990989626819727</v>
       </c>
       <c r="D199" t="n">
-        <v>0.999242067506576</v>
+        <v>0.9960779345499154</v>
       </c>
       <c r="E199" t="n">
         <v>39.65973035896867</v>
@@ -4633,7 +4633,7 @@
         <v>0.9975201739446177</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9978261563090841</v>
+        <v>0.9888485234514589</v>
       </c>
       <c r="E200" t="n">
         <v>35.15943840944753</v>
@@ -4654,7 +4654,7 @@
         <v>0.9775489988400395</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9792340742638598</v>
+        <v>0.8990488879276499</v>
       </c>
       <c r="E201" t="n">
         <v>24.17062839799598</v>
@@ -4675,7 +4675,7 @@
         <v>0.8424180458511018</v>
       </c>
       <c r="D202" t="n">
-        <v>0.8418104860876525</v>
+        <v>0.4223437650177114</v>
       </c>
       <c r="E202" t="n">
         <v>17.24877293017441</v>
@@ -4696,7 +4696,7 @@
         <v>0.9429108059901549</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9471889058037357</v>
+        <v>0.7570188310208029</v>
       </c>
       <c r="E203" t="n">
         <v>24.30233415918057</v>
@@ -4717,7 +4717,7 @@
         <v>0.9974638714197078</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9976317130488631</v>
+        <v>0.9880059464023615</v>
       </c>
       <c r="E204" t="n">
         <v>32.29183530392633</v>
@@ -4759,7 +4759,7 @@
         <v>0.9978224056209031</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9981059067711026</v>
+        <v>0.9902923719988682</v>
       </c>
       <c r="E206" t="n">
         <v>34.50763091286701</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E208" t="n">
         <v>100</v>
@@ -4822,7 +4822,7 @@
         <v>0.9626850399869991</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9656812044849719</v>
+        <v>0.8368603304423248</v>
       </c>
       <c r="E209" t="n">
         <v>27.10877796512094</v>
@@ -4864,7 +4864,7 @@
         <v>0.992476124261375</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9936365632877538</v>
+        <v>0.9673603714715119</v>
       </c>
       <c r="E211" t="n">
         <v>31.77817082952114</v>
@@ -4885,7 +4885,7 @@
         <v>0.9979603589125763</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9981964594642724</v>
+        <v>0.9907449207291673</v>
       </c>
       <c r="E212" t="n">
         <v>39.44291161162013</v>
@@ -4906,7 +4906,7 @@
         <v>0.998186706322168</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9984300846033994</v>
+        <v>0.9918930096400684</v>
       </c>
       <c r="E213" t="n">
         <v>40.27867434136813</v>
@@ -4927,7 +4927,7 @@
         <v>0.9652895150316626</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9671528759438799</v>
+        <v>0.8439177810027469</v>
       </c>
       <c r="E214" t="n">
         <v>24.27558971429061</v>
@@ -4948,7 +4948,7 @@
         <v>0.9975477340326494</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9979109787922801</v>
+        <v>0.9892076581676338</v>
       </c>
       <c r="E215" t="n">
         <v>35.65353779149269</v>
@@ -4969,7 +4969,7 @@
         <v>0.9501886448715144</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9545409356932043</v>
+        <v>0.7885329335785466</v>
       </c>
       <c r="E216" t="n">
         <v>23.74958911651449</v>
@@ -4990,7 +4990,7 @@
         <v>0.9942629000081775</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9951152145455925</v>
+        <v>0.9749459196182048</v>
       </c>
       <c r="E217" t="n">
         <v>30.84595895563167</v>
@@ -5011,7 +5011,7 @@
         <v>0.9906327504007914</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9920952015172119</v>
+        <v>0.9595045796807861</v>
       </c>
       <c r="E218" t="n">
         <v>30.96299340119432</v>
@@ -5032,7 +5032,7 @@
         <v>0.9186654971018198</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9225131455891461</v>
+        <v>0.6649959810021961</v>
       </c>
       <c r="E219" t="n">
         <v>20.29036884917259</v>
@@ -5053,7 +5053,7 @@
         <v>0.9709689970134642</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9724310843223268</v>
+        <v>0.8680713459063008</v>
       </c>
       <c r="E220" t="n">
         <v>27.88739016201507</v>
@@ -5074,7 +5074,7 @@
         <v>0.9926706688232265</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9928542595084574</v>
+        <v>0.9644161039601618</v>
       </c>
       <c r="E221" t="n">
         <v>27.70555566796514</v>
@@ -5095,7 +5095,7 @@
         <v>0.9588100272500617</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9624923306123132</v>
+        <v>0.8220328233126786</v>
       </c>
       <c r="E222" t="n">
         <v>26.6892408862446</v>
@@ -5116,7 +5116,7 @@
         <v>0.9912131730834101</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9919505016358093</v>
+        <v>0.9595019331916871</v>
       </c>
       <c r="E223" t="n">
         <v>29.6852904514978</v>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E225" t="n">
         <v>100</v>
@@ -5179,7 +5179,7 @@
         <v>0.8200518933748598</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8226094947768219</v>
+        <v>0.3753541106234388</v>
       </c>
       <c r="E226" t="n">
         <v>19.48742495531016</v>
@@ -5200,7 +5200,7 @@
         <v>0.9749352530772913</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9762562418716788</v>
+        <v>0.8852672199362085</v>
       </c>
       <c r="E227" t="n">
         <v>29.60168753272999</v>
@@ -5221,7 +5221,7 @@
         <v>0.9654159934650166</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9664054219526007</v>
+        <v>0.8416920003102865</v>
       </c>
       <c r="E228" t="n">
         <v>26.04175306497137</v>
